--- a/PhieuKiemDinh/PhieuKiemDinh/Resources/ExportExcel.xlsx
+++ b/PhieuKiemDinh/PhieuKiemDinh/Resources/ExportExcel.xlsx
@@ -9,17 +9,14 @@
   <sheets>
     <sheet name="File xuất" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>①管理ナンバー</t>
-  </si>
-  <si>
-    <t>②Flab lỗi</t>
   </si>
   <si>
     <t>③リコール等対象</t>
@@ -130,43 +127,29 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -196,13 +179,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -508,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -517,19 +497,19 @@
       <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="3" customWidth="1"/>
-    <col min="2" max="13" width="12.7109375" style="3"/>
-    <col min="14" max="14" width="13.5703125" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="12.7109375" style="3"/>
+    <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
+    <col min="2" max="12" width="12.75" style="2"/>
+    <col min="13" max="13" width="13.625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="12.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -564,9 +544,6 @@
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
